--- a/medicine/Psychotrope/Yves_Bur/Yves_Bur.xlsx
+++ b/medicine/Psychotrope/Yves_Bur/Yves_Bur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yves Bur, né le 10 mars 1951 à Strasbourg (Bas-Rhin), est un docteur en chirurgie dentaire et homme politique français.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 10 mars 1951 à Strasbourg, Yves Bur obtient un doctorat en odontologie en 1975 à la Faculté de Chirurgie Dentaire de Strasbourg. Il exerce en tant que chirurgien-dentiste libéral à Lingolsheim de 1976 à 2002. Il deviendra d’ailleurs membre du Conseil départemental de l’Ordre des chirurgiens dentiste en 1988. Engagé dans l’action syndicale professionnelle au sein de l’Union des Jeunes Chirurgiens Dentistes (UJCD) dont il intègre le Bureau national, Yves Bur se penche très vite sur les perspectives d’avenir de sa profession en défendant notamment à cette époque une approche économique de l’environnement professionnel.
 Au-delà de l’intérêt qu’il porte à son métier, le praticien décide de s’impliquer dans la vie publique. C’est pourquoi, en 1983, il entre au Conseil municipal de Lingolsheim, ville alsacienne de 17 000 habitants, où il exerce la fonction d’adjoint au maire, chargé de la vie associative. En 1989, Yves Bur est réélu aux côtés du maire de Lingolsheim et se voit confier la politique de la ville et de la rénovation urbaine.
@@ -527,11 +541,46 @@
 Le 7 mars 2007, il préside à l'élection du président de l'Assemblée nationale, Patrick Ollier. Au mois de juin suivant, après la victoire de la droite aux élections législatives, il est pressenti pour lui succéder au « perchoir » et devenir ainsi président de la chambre basse, mais c'est Bernard Accoyer, président du groupe UMP, qui est finalement élu.
 Se rattachant à la famille de pensée centriste, si Yves Bur s’est inscrit en 1992 au CDS, il est un partisan de l’union de la droite. À ce titre, il participe activement au mouvement des refondateurs et rejoint l’UMP dès sa constitution, suite logique de son engagement en faveur de l’UEM en 2001. Cette démarche lui vaut d’être élu en 2002 vice-président du groupe UMP de l’Assemblée nationale (fonction qu’il quitte en 2004 pour se consacrer à la vice-présidence de l’Assemblée), ainsi que Secrétaire national du parti UMP chargé des relations entre la France et l’Allemagne. Il est également, depuis 2003 Président de l’UMP du Bas-Rhin.
 Le 10 juin 2007, il est réélu député par 57 % des voix au premier tour.
-Il est membre du groupe d'études sur la question du Tibet de Assemblée nationale[1].
+Il est membre du groupe d'études sur la question du Tibet de Assemblée nationale.
 Lors des élections législatives françaises de 2012, c'est comme suppléant de Sophie Rohfritsch qu'il se présente. Cette dernière lui succède comme députée en obtenant 65,5 % des voix au second tour.
 Le 13 juin 2013, il célèbre, comme maire de Lingolsheim, le premier mariage homosexuel d'Alsace, expliquant qu'il a « célébré ce mariage comme n'importe quelle union », ayant « devant [lui] des personnes qui s'aiment et qui l'ont dit devant des témoins et avec leurs familles ».
-Son action
-Spécialiste de la santé publique, Yves Bur a présenté le mercredi 2 novembre 2005 la proposition de loi visant à interdire de fumer dans les lieux publics et les lieux de travail pour protéger les salariés contre les dangers du tabagisme passif. Cette initiative a lancé un débat national qui a abouti à la publication du décret no 2006-1386 du 15 novembre 2006 fixant les conditions d'application de l'interdiction de fumer dans les lieux affectés à un usage collectif[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yves_Bur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Bur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Son action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste de la santé publique, Yves Bur a présenté le mercredi 2 novembre 2005 la proposition de loi visant à interdire de fumer dans les lieux publics et les lieux de travail pour protéger les salariés contre les dangers du tabagisme passif. Cette initiative a lancé un débat national qui a abouti à la publication du décret no 2006-1386 du 15 novembre 2006 fixant les conditions d'application de l'interdiction de fumer dans les lieux affectés à un usage collectif.
 Plusieurs autres mesures phares dans le domaine de la santé lui sont également dues, notamment :
 suppression des distributeurs automatiques dans les écoles pour lutter contre les pratiques de grignotage et l'obésité infantile ;
 augmentation de la taxation des prémix afin de lutter contre l'alcoolisme des adolescents ;
@@ -542,45 +591,152 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Yves_Bur</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Yves_Bur</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mandat national
-2007-2012 : député de la 4e circonscription du Bas-Rhin
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mandat national</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007-2012 : député de la 4e circonscription du Bas-Rhin
 2002-2007 : député de la 4e circonscription du Bas-Rhin (Vice-président de l’Assemblée nationale de 2004 à 2007)
 1997-2002 : député de la 4e circonscription du Bas-Rhin
-1995-1997 : député de la 4e circonscription du Bas-Rhin
-Mandat départemental
-1994-2001 : conseiller général du Bas-Rhin
-1993-1994 : conseiller général du Bas-Rhin
-Mandat local
-1995-2020 : maire de Lingolsheim (Bas-Rhin)
-1983-1995 : adjoint au maire de Lingolsheim (Bas-Rhin)
-Autres fonctions
-Président de la fédération UMP du Bas-Rhin de 2003 à 2008
+1995-1997 : député de la 4e circonscription du Bas-Rhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yves_Bur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Bur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mandat départemental</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994-2001 : conseiller général du Bas-Rhin
+1993-1994 : conseiller général du Bas-Rhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yves_Bur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Bur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mandat local</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1995-2020 : maire de Lingolsheim (Bas-Rhin)
+1983-1995 : adjoint au maire de Lingolsheim (Bas-Rhin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yves_Bur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Bur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres fonctions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Président de la fédération UMP du Bas-Rhin de 2003 à 2008
 Vice-président de la communauté urbaine de Strasbourg de 2001 à 2008</t>
         </is>
       </c>
